--- a/class08/if-else.xlsx
+++ b/class08/if-else.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00000"/>
+    <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -153,14 +153,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -444,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:P19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -454,15 +454,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="N2" t="s">
         <v>8</v>
       </c>
@@ -497,28 +497,28 @@
       </c>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"John","Alice","Bob","Emma")</f>
-        <v>Alice</v>
+        <v>John</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(20,100)</f>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:H4" ca="1" si="0">RANDBETWEEN(20,100)</f>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <f ca="1">SUM(F4:H4)</f>
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J4" t="str">
         <f ca="1">IF(I4&gt;=270, "A+",IF(I4&gt;=210, "A", IF(I4&gt;=180, "B", IF( I4 &gt;= 99, "C","F"))))</f>
@@ -532,28 +532,28 @@
       </c>
     </row>
     <row r="5" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E19" ca="1" si="1">CHOOSE(RANDBETWEEN(1,4),"John","Alice","Bob","Emma")</f>
-        <v>John</v>
+        <v>Bob</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:H18" ca="1" si="2">RANDBETWEEN(20,100)</f>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I19" ca="1" si="3">SUM(F5:H5)</f>
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J19" ca="1" si="4">IF(I5&gt;=270, "A+",IF(I5&gt;=210, "A", IF(I5&gt;=180, "B", IF( I5 &gt;= 99, "C","F"))))</f>
@@ -567,7 +567,7 @@
       </c>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" t="str">
@@ -576,19 +576,19 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -602,28 +602,28 @@
       </c>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>John</v>
+        <v>Emma</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -637,343 +637,343 @@
       </c>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v>Emma</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Alice</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>Bob</v>
       </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="H8">
+      <c r="F10">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>John</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Emma</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="G12">
         <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="J8" t="str">
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bob</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>C</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" t="str">
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>John</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bob</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>13</v>
+      </c>
+      <c r="E16" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Alice</v>
       </c>
-      <c r="F9">
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Alice</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="3"/>
+        <v>173</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>John</v>
+      </c>
+      <c r="F18">
         <f t="shared" ca="1" si="2"/>
         <v>94</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="3"/>
-        <v>255</v>
-      </c>
-      <c r="J9" t="str">
+      <c r="G18">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>A</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="3">
-        <v>7</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Emma</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="3"/>
-        <v>169</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="3">
-        <v>8</v>
-      </c>
-      <c r="E11" t="str">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>16</v>
+      </c>
+      <c r="E19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Bob</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="3"/>
-        <v>178</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="3">
-        <v>9</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Bob</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="3"/>
-        <v>109</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>John</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="3">
-        <v>11</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Emma</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="3">
-        <v>12</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Emma</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="3">
-        <v>13</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>John</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="3"/>
-        <v>137</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="3">
-        <v>14</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Alice</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="3">
-        <v>15</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Alice</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="3"/>
-        <v>163</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="3">
-        <v>16</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Emma</v>
       </c>
       <c r="F19">
         <v>90</v>
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1018,10 +1018,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
